--- a/biology/Zoologie/Chien_chinois_à_crête/Chien_chinois_à_crête.xlsx
+++ b/biology/Zoologie/Chien_chinois_à_crête/Chien_chinois_à_crête.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_chinois_%C3%A0_cr%C3%AAte</t>
+          <t>Chien_chinois_à_crête</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chien nu chinois, ou chien chinois à crête, est une race de chien à peau nue.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chien_chinois_%C3%A0_cr%C3%AAte</t>
+          <t>Chien_chinois_à_crête</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Bref aperçu historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les chiens à peau nue, le chien chinois à crête a des origines anciennes et quelque peu floues… Cependant, ce chien si original était déjà connu au XIIe siècle avant notre ère[réf. souhaitée] ; il portait des noms différents selon l'endroit où il vivait. De nombreuses hypothèses s'affrontent donc, concernant son pays d'origine.
 Bien que nommé chien chinois, son ancêtre serait originaire d'Indochine, la région actuelle du Vietnam et du Cambodge. Ces régions étant très irriguées, le poil du houppette s'est éclairci pour sécher plus rapidement. Cela permet au houppette d'éviter les maladies de peau associées à un poil humide. L'Homme a ensuite développé des variétés avec de moins en moins de poil, jusqu'à obtenir les variétés que nous connaissons aujourd'hui.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chien_chinois_%C3%A0_cr%C3%AAte</t>
+          <t>Chien_chinois_à_crête</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : La taille idéale pour les mâles est de 28 à 33 cm et pour les femelles, de 23 à 30,5 cm. Plus ou moins 2 cm sont admis.
 Constitution : En moyenne de 3 à 5 kg.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chien_chinois_%C3%A0_cr%C3%AAte</t>
+          <t>Chien_chinois_à_crête</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chien nu chinois est une race plutôt rare mais qui rencontre de plus en plus de succès[réf. souhaitée]. Ainsi, on compte de plus en plus d'élevages en Europe. Il en existe deux variétés : 
 le chien nu à crête, qui théoriquement est glabre sur le corps excepté la tête, la queue et les pieds et ses poils sont appelés « garnitures »; toutefois il existe également des chiens présentant plus ou moins de poils disgracieux sur le corps appelés en anglais moderate, ou semi-coat, et hairy : ces chiens ont des garnitures plus importantes et doivent être épilés pour les compétitions.
